--- a/Asset/Excel/Pearson Correlation.xlsx
+++ b/Asset/Excel/Pearson Correlation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Asset\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30A8757-A473-46C6-B990-6ECE87B92F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC31CDCF-6F5F-451B-A0E3-686476127392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1B411816-2BFD-424D-ACAE-92DCC872A342}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1B411816-2BFD-424D-ACAE-92DCC872A342}"/>
   </bookViews>
   <sheets>
     <sheet name="Anies" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -146,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -169,11 +178,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -193,10 +228,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -204,6 +239,12 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C2DB9A-17D5-408C-A6AA-FBD09288F2A7}">
   <dimension ref="B3:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +574,7 @@
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -590,18 +631,18 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>845</v>
+        <v>893</v>
       </c>
       <c r="D6">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <f>D6/SUM(C6:D6)</f>
-        <v>0.11887382690302398</v>
+        <v>7.7479338842975212E-2</v>
       </c>
       <c r="I6">
         <f>C6/SUM(C6:D6)</f>
-        <v>0.88112617309697605</v>
+        <v>0.9225206611570248</v>
       </c>
       <c r="J6" s="1">
         <f>C10</f>
@@ -609,7 +650,7 @@
       </c>
       <c r="K6">
         <f>I6-$I$10</f>
-        <v>-2.1297953235794753E-2</v>
+        <v>-9.7756303803808731E-3</v>
       </c>
       <c r="L6" s="1">
         <f>J6-$J$10</f>
@@ -617,7 +658,7 @@
       </c>
       <c r="M6">
         <f>POWER(K6,2)</f>
-        <v>4.5360281203410022E-4</v>
+        <v>9.556294933382549E-5</v>
       </c>
       <c r="N6">
         <f>POWER(L6,2)</f>
@@ -625,18 +666,21 @@
       </c>
       <c r="O6">
         <f>K6*L6</f>
-        <v>7.4187870438018381E-4</v>
+        <v>3.4051779158326701E-4</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R6" s="8">
-        <v>0.88112617309697605</v>
+        <f>I6</f>
+        <v>0.9225206611570248</v>
       </c>
       <c r="S6" s="8">
-        <v>0.11887382690302398</v>
+        <f>H6</f>
+        <v>7.7479338842975212E-2</v>
       </c>
       <c r="T6" s="8">
+        <f>J6</f>
         <v>0.15</v>
       </c>
     </row>
@@ -645,18 +689,18 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>945</v>
+        <v>964</v>
       </c>
       <c r="D7">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="H7">
         <f t="shared" ref="H7:H8" si="0">D7/SUM(C7:D7)</f>
-        <v>9.3090211132437622E-2</v>
+        <v>7.4856046065259113E-2</v>
       </c>
       <c r="I7">
         <f t="shared" ref="I7:I8" si="1">C7/SUM(C7:D7)</f>
-        <v>0.90690978886756235</v>
+        <v>0.92514395393474091</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ref="J7:J8" si="2">C11</f>
@@ -664,7 +708,7 @@
       </c>
       <c r="K7">
         <f>I7-$I$10</f>
-        <v>4.4856625347915458E-3</v>
+        <v>-7.15233760266476E-3</v>
       </c>
       <c r="L7" s="1">
         <f>J7-$J$10</f>
@@ -672,7 +716,7 @@
       </c>
       <c r="M7">
         <f t="shared" ref="M7:M8" si="3">POWER(K7,2)</f>
-        <v>2.0121168376032517E-5</v>
+        <v>5.1155933182492286E-5</v>
       </c>
       <c r="N7">
         <f t="shared" ref="N7:N8" si="4">POWER(L7,2)</f>
@@ -680,18 +724,21 @@
       </c>
       <c r="O7">
         <f t="shared" ref="O7:O8" si="5">K7*L7</f>
-        <v>-6.878015886680372E-5</v>
+        <v>1.0966917657419302E-4</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="R7" s="8">
-        <v>0.90690978886756235</v>
+        <f t="shared" ref="R7:R8" si="6">I7</f>
+        <v>0.92514395393474091</v>
       </c>
       <c r="S7" s="8">
-        <v>9.3090211132437622E-2</v>
+        <f t="shared" ref="S7:S8" si="7">H7</f>
+        <v>7.4856046065259113E-2</v>
       </c>
       <c r="T7" s="8">
+        <f t="shared" ref="T7:T8" si="8">J7</f>
         <v>0.16949999999999998</v>
       </c>
     </row>
@@ -700,18 +747,18 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>626</v>
+        <v>673</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>8.0763582966226141E-2</v>
+        <v>5.0775740479548657E-2</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>0.9192364170337739</v>
+        <v>0.94922425952045131</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
@@ -719,7 +766,7 @@
       </c>
       <c r="K8">
         <f>I8-$I$10</f>
-        <v>1.6812290701003096E-2</v>
+        <v>1.6927967983045633E-2</v>
       </c>
       <c r="L8" s="1">
         <f>J8-$J$10</f>
@@ -727,7 +774,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
-        <v>2.8265311861503517E-4</v>
+        <v>2.8655610003501801E-4</v>
       </c>
       <c r="N8">
         <f t="shared" si="4"/>
@@ -735,18 +782,21 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>8.4341658350032243E-4</v>
+        <v>8.4921972714945633E-4</v>
       </c>
       <c r="Q8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="R8" s="8">
-        <v>0.9192364170337739</v>
+        <f t="shared" si="6"/>
+        <v>0.94922425952045131</v>
       </c>
       <c r="S8" s="8">
-        <v>8.0763582966226141E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.0775740479548657E-2</v>
       </c>
       <c r="T8" s="8">
+        <f t="shared" si="8"/>
         <v>0.23500000000000001</v>
       </c>
     </row>
@@ -765,23 +815,23 @@
       </c>
       <c r="H10">
         <f>AVERAGE(H6:H8)</f>
-        <v>9.7575873667229251E-2</v>
+        <v>6.7703708462594339E-2</v>
       </c>
       <c r="I10">
         <f>AVERAGE(I6:I8)</f>
-        <v>0.9024241263327708</v>
+        <v>0.93229629153740567</v>
       </c>
       <c r="J10">
         <f>AVERAGE(J6:J8)</f>
         <v>0.18483333333333332</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="11"/>
+      <c r="L10" s="12"/>
       <c r="M10">
         <f>SUM(M6:M8)</f>
-        <v>7.5637709902516797E-4</v>
+        <v>4.332749825513358E-4</v>
       </c>
       <c r="N10">
         <f>SUM(N6:N8)</f>
@@ -789,7 +839,7 @@
       </c>
       <c r="O10">
         <f>SUM(O6:O8)</f>
-        <v>1.5165151290137025E-3</v>
+        <v>1.2994066953069163E-3</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -803,10 +853,10 @@
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
       <c r="G11" s="13"/>
-      <c r="Q11" s="12" t="s">
+      <c r="Q11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="12"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -824,13 +874,14 @@
       </c>
       <c r="O12" s="4">
         <f>O10/(SQRT(M10) * SQRT(N10))</f>
-        <v>0.87568283815656922</v>
+        <v>0.99136268994226096</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="R12" s="10">
-        <v>0.87568283815656922</v>
+        <f>PEARSON(I6:I8,J6:J8)</f>
+        <v>0.99136268994226084</v>
       </c>
     </row>
     <row r="13" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,13 +893,14 @@
       </c>
       <c r="O13" s="4">
         <f>CORREL(H6:H8,J6:J8)</f>
-        <v>-0.87568283815656855</v>
+        <v>-0.99136268994226084</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="7">
-        <v>-0.87568283815656922</v>
+      <c r="R13" s="10">
+        <f>PEARSON(H6:H8,J6:J8)</f>
+        <v>-0.99136268994226084</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -932,53 +984,56 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>890</v>
+        <v>920</v>
       </c>
       <c r="D19" s="6">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H19">
         <f>D19/SUM(C19:D19)</f>
-        <v>3.783783783783784E-2</v>
+        <v>2.0234291799787009E-2</v>
       </c>
       <c r="I19">
         <f>C19/SUM(C19:D19)</f>
-        <v>0.96216216216216222</v>
+        <v>0.97976570820021303</v>
       </c>
       <c r="J19" s="1">
         <f>C23</f>
         <v>0.27579999999999999</v>
       </c>
       <c r="K19">
-        <f>I19-$I$10</f>
-        <v>5.9738035829391412E-2</v>
+        <f>I19-$I$23</f>
+        <v>5.8670070179605016E-3</v>
       </c>
       <c r="L19" s="1">
-        <f>J19-$J$10</f>
-        <v>9.0966666666666668E-2</v>
+        <f>J19-$J$23</f>
+        <v>8.9500000000000135E-3</v>
       </c>
       <c r="M19">
         <f>POWER(K19,2)</f>
-        <v>3.5686329247536521E-3</v>
+        <v>3.4421771348797777E-5</v>
       </c>
       <c r="N19">
         <f>POWER(L19,2)</f>
-        <v>8.2749344444444442E-3</v>
+        <v>8.0102500000000238E-5</v>
       </c>
       <c r="O19">
         <f>K19*L19</f>
-        <v>5.4341699926136388E-3</v>
+        <v>5.2509712810746567E-5</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="R19" s="8">
-        <v>0.96216216216216222</v>
+        <f>I19</f>
+        <v>0.97976570820021303</v>
       </c>
       <c r="S19" s="8">
-        <v>3.783783783783784E-2</v>
+        <f>H19</f>
+        <v>2.0234291799787009E-2</v>
       </c>
       <c r="T19" s="8">
+        <f>J19</f>
         <v>0.27579999999999999</v>
       </c>
     </row>
@@ -987,53 +1042,56 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>1083</v>
+        <v>1109</v>
       </c>
       <c r="D20" s="6">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:H21" si="6">D20/SUM(C20:D20)</f>
-        <v>2.6954177897574125E-2</v>
+        <f t="shared" ref="H20:H21" si="9">D20/SUM(C20:D20)</f>
+        <v>1.5971606033717833E-2</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I21" si="7">C20/SUM(C20:D20)</f>
-        <v>0.97304582210242585</v>
+        <f t="shared" ref="I20:I21" si="10">C20/SUM(C20:D20)</f>
+        <v>0.98402839396628217</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="J20:J21" si="8">C24</f>
+        <f t="shared" ref="J20:J21" si="11">C24</f>
         <v>0.23650000000000002</v>
       </c>
       <c r="K20">
-        <f>I20-$I$10</f>
-        <v>7.0621695769655046E-2</v>
+        <f t="shared" ref="K20:K21" si="12">I20-$I$23</f>
+        <v>1.0129692784029642E-2</v>
       </c>
       <c r="L20" s="1">
-        <f>J20-$J$10</f>
-        <v>5.1666666666666694E-2</v>
+        <f t="shared" ref="L20:L21" si="13">J20-$J$23</f>
+        <v>-3.034999999999996E-2</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M21" si="9">POWER(K20,2)</f>
-        <v>4.9874239133817135E-3</v>
+        <f t="shared" ref="M20:M21" si="14">POWER(K20,2)</f>
+        <v>1.026106758988222E-4</v>
       </c>
       <c r="N20">
-        <f t="shared" ref="N20:N21" si="10">POWER(L20,2)</f>
-        <v>2.6694444444444474E-3</v>
+        <f>POWER(L20,2)</f>
+        <v>9.2112249999999759E-4</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:O21" si="11">K20*L20</f>
-        <v>3.6487876147655125E-3</v>
+        <f t="shared" ref="O20:O21" si="15">K20*L20</f>
+        <v>-3.0743617599529924E-4</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="R20" s="8">
-        <v>0.97304582210242585</v>
+        <f t="shared" ref="R20:R21" si="16">I20</f>
+        <v>0.98402839396628217</v>
       </c>
       <c r="S20" s="8">
-        <v>2.6954177897574125E-2</v>
+        <f>H20</f>
+        <v>1.5971606033717833E-2</v>
       </c>
       <c r="T20" s="8">
+        <f t="shared" ref="T20:T21" si="17">J20</f>
         <v>0.23650000000000002</v>
       </c>
     </row>
@@ -1042,53 +1100,56 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>1362</v>
+        <v>1388</v>
       </c>
       <c r="D21" s="6">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="H21">
-        <f t="shared" si="6"/>
-        <v>5.6786703601108032E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.2097998619737752E-2</v>
       </c>
       <c r="I21">
-        <f t="shared" si="7"/>
-        <v>0.94321329639889195</v>
+        <f t="shared" si="10"/>
+        <v>0.95790200138026227</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.28825000000000001</v>
       </c>
       <c r="K21">
-        <f>I21-$I$10</f>
-        <v>4.078917006612115E-2</v>
+        <f t="shared" si="12"/>
+        <v>-1.5996699801990255E-2</v>
       </c>
       <c r="L21" s="1">
-        <f>J21-$J$10</f>
-        <v>0.10341666666666668</v>
+        <f t="shared" si="13"/>
+        <v>2.140000000000003E-2</v>
       </c>
       <c r="M21">
-        <f t="shared" si="9"/>
-        <v>1.6637563946829536E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.5589440455499508E-4</v>
       </c>
       <c r="N21">
-        <f t="shared" si="10"/>
-        <v>1.0695006944444448E-2</v>
+        <f t="shared" ref="N20:N21" si="18">POWER(L21,2)</f>
+        <v>4.5796000000000129E-4</v>
       </c>
       <c r="O21">
-        <f t="shared" si="11"/>
-        <v>4.2182800043380295E-3</v>
+        <f t="shared" si="15"/>
+        <v>-3.4232937576259194E-4</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="R21" s="8">
-        <v>0.94321329639889195</v>
+        <f t="shared" si="16"/>
+        <v>0.95790200138026227</v>
       </c>
       <c r="S21" s="8">
-        <v>5.6786703601108032E-2</v>
+        <f>H21</f>
+        <v>4.2097998619737752E-2</v>
       </c>
       <c r="T21" s="8">
+        <f t="shared" si="17"/>
         <v>0.28825000000000001</v>
       </c>
     </row>
@@ -1110,31 +1171,31 @@
       </c>
       <c r="H23">
         <f>AVERAGE(H19:H21)</f>
-        <v>4.0526239778839998E-2</v>
+        <v>2.6101298817747531E-2</v>
       </c>
       <c r="I23">
         <f>AVERAGE(I19:I21)</f>
-        <v>0.95947376022116015</v>
+        <v>0.97389870118225252</v>
       </c>
       <c r="J23">
         <f>AVERAGE(J19:J21)</f>
         <v>0.26684999999999998</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="11"/>
+      <c r="L23" s="12"/>
       <c r="M23">
         <f>SUM(M19:M21)</f>
-        <v>1.021981323281832E-2</v>
+        <v>3.9292685180261503E-4</v>
       </c>
       <c r="N23">
         <f>SUM(N19:N21)</f>
-        <v>2.1639385833333337E-2</v>
+        <v>1.4591849999999991E-3</v>
       </c>
       <c r="O23">
         <f>SUM(O19:O21)</f>
-        <v>1.3301237611717181E-2</v>
+        <v>-5.972558389471446E-4</v>
       </c>
     </row>
     <row r="24" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -1145,6 +1206,10 @@
         <v>0.23650000000000002</v>
       </c>
       <c r="E24" s="2"/>
+      <c r="Q24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="16"/>
     </row>
     <row r="25" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -1159,12 +1224,15 @@
       </c>
       <c r="O25" s="4">
         <f>O23/(SQRT(M23) * SQRT(N23))</f>
-        <v>0.89443360304261832</v>
-      </c>
-      <c r="Q25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="R25" s="12"/>
+        <v>-0.78876816073025124</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="10">
+        <f>PEARSON(I19:I21,J19:J21)</f>
+        <v>-0.78876816073025113</v>
+      </c>
     </row>
     <row r="26" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="2"/>
@@ -1173,28 +1241,23 @@
       </c>
       <c r="O26" s="4">
         <f>O25*-1</f>
-        <v>-0.89443360304261832</v>
+        <v>0.78876816073025124</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R26" s="10">
-        <v>0.89443360304261832</v>
+        <f>PEARSON(H19:H21,J19:J21)</f>
+        <v>0.7887681607302518</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
-      <c r="Q27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R27" s="7">
-        <v>-0.89443360304261832</v>
-      </c>
     </row>
     <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
     </row>
     <row r="29" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -1252,53 +1315,56 @@
         <v>8</v>
       </c>
       <c r="C32">
-        <v>1143</v>
+        <v>1238</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H32">
         <f>D32/SUM(C32:D32)</f>
-        <v>9.5320623916811086E-3</v>
+        <v>6.420545746388443E-3</v>
       </c>
       <c r="I32">
         <f>C32/SUM(C32:D32)</f>
-        <v>0.99046793760831886</v>
+        <v>0.9935794542536116</v>
       </c>
       <c r="J32" s="1">
         <f>C36</f>
         <v>0.21680000000000002</v>
       </c>
       <c r="K32">
-        <f>I32-$I$10</f>
-        <v>8.8043811275548056E-2</v>
+        <f>I32-$I$36</f>
+        <v>-4.0289812266017799E-3</v>
       </c>
       <c r="L32" s="1">
-        <f>J32-$J$10</f>
-        <v>3.1966666666666699E-2</v>
+        <f>J32-$J$36</f>
+        <v>-1.4588888888888873E-2</v>
       </c>
       <c r="M32">
-        <f t="shared" ref="M32:N34" si="12">POWER(K32,2)</f>
-        <v>7.7517127039243234E-3</v>
+        <f t="shared" ref="M32:N34" si="19">POWER(K32,2)</f>
+        <v>1.6232689724309584E-5</v>
       </c>
       <c r="N32">
-        <f t="shared" si="12"/>
-        <v>1.0218677777777798E-3</v>
+        <f t="shared" si="19"/>
+        <v>2.1283567901234524E-4</v>
       </c>
       <c r="O32">
         <f>K32*L32</f>
-        <v>2.8144671671083555E-3</v>
+        <v>5.8778359450312572E-5</v>
       </c>
       <c r="Q32" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R32" s="8">
-        <v>0.99046793760831886</v>
+        <f>I32</f>
+        <v>0.9935794542536116</v>
       </c>
       <c r="S32" s="8">
-        <v>9.5320623916811086E-3</v>
+        <f>H32</f>
+        <v>6.420545746388443E-3</v>
       </c>
       <c r="T32" s="8">
+        <f>J32</f>
         <v>0.21680000000000002</v>
       </c>
     </row>
@@ -1307,53 +1373,56 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>1288</v>
+        <v>1325</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H34" si="13">D33/SUM(C33:D33)</f>
-        <v>7.7041602465331279E-3</v>
+        <f t="shared" ref="H33:H34" si="20">D33/SUM(C33:D33)</f>
+        <v>7.5414781297134241E-4</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="I33:I34" si="14">C33/SUM(C33:D33)</f>
-        <v>0.99229583975346691</v>
+        <f t="shared" ref="I33:I34" si="21">C33/SUM(C33:D33)</f>
+        <v>0.99924585218702866</v>
       </c>
       <c r="J33" s="1">
         <f>C37</f>
         <v>0.24616666666666667</v>
       </c>
       <c r="K33">
-        <f>I33-$I$10</f>
-        <v>8.9871713420696109E-2</v>
+        <f t="shared" ref="K33:K34" si="22">I33-$I$36</f>
+        <v>1.6374167068152756E-3</v>
       </c>
       <c r="L33" s="1">
-        <f>J33-$J$10</f>
-        <v>6.1333333333333351E-2</v>
+        <f t="shared" ref="L33:L34" si="23">J33-$J$36</f>
+        <v>1.4777777777777779E-2</v>
       </c>
       <c r="M33">
-        <f t="shared" si="12"/>
-        <v>8.0769248731717286E-3</v>
+        <f t="shared" si="19"/>
+        <v>2.6811334717577824E-6</v>
       </c>
       <c r="N33">
-        <f t="shared" si="12"/>
-        <v>3.7617777777777801E-3</v>
+        <f t="shared" si="19"/>
+        <v>2.1838271604938275E-4</v>
       </c>
       <c r="O33">
         <f>K33*L33</f>
-        <v>5.5121317564693628E-3</v>
+        <v>2.4197380222936851E-5</v>
       </c>
       <c r="Q33" s="9" t="s">
         <v>9</v>
       </c>
       <c r="R33" s="8">
-        <v>0.99229583975346691</v>
+        <f>I33</f>
+        <v>0.99924585218702866</v>
       </c>
       <c r="S33" s="8">
-        <v>7.7041602465331279E-3</v>
+        <f t="shared" ref="S33:S34" si="24">H33</f>
+        <v>7.5414781297134241E-4</v>
       </c>
       <c r="T33" s="8">
+        <f t="shared" ref="T33:T34" si="25">J33</f>
         <v>0.24616666666666667</v>
       </c>
     </row>
@@ -1365,50 +1434,53 @@
         <v>954</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" si="13"/>
-        <v>2.0920502092050207E-3</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" si="14"/>
-        <v>0.997907949790795</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="J34" s="1">
         <f>C38</f>
         <v>0.23119999999999999</v>
       </c>
       <c r="K34">
-        <f>I34-$I$10</f>
-        <v>9.5483823458024197E-2</v>
+        <f t="shared" si="22"/>
+        <v>2.3915645197866153E-3</v>
       </c>
       <c r="L34" s="1">
-        <f>J34-$J$10</f>
-        <v>4.6366666666666667E-2</v>
+        <f t="shared" si="23"/>
+        <v>-1.8888888888890509E-4</v>
       </c>
       <c r="M34">
-        <f t="shared" si="12"/>
-        <v>9.1171605421631313E-3</v>
+        <f t="shared" si="19"/>
+        <v>5.7195808523021839E-6</v>
       </c>
       <c r="N34">
-        <f t="shared" si="12"/>
-        <v>2.1498677777777777E-3</v>
+        <f t="shared" si="19"/>
+        <v>3.5679012345685133E-8</v>
       </c>
       <c r="O34">
         <f>K34*L34</f>
-        <v>4.4272666143370552E-3</v>
+        <v>-4.5173996484862163E-7</v>
       </c>
       <c r="Q34" s="9" t="s">
         <v>10</v>
       </c>
       <c r="R34" s="8">
-        <v>0.997907949790795</v>
+        <f>I34</f>
+        <v>1</v>
       </c>
       <c r="S34" s="8">
-        <v>2.0920502092050207E-3</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="T34" s="8">
+        <f t="shared" si="25"/>
         <v>0.23119999999999999</v>
       </c>
     </row>
@@ -1425,31 +1497,31 @@
       </c>
       <c r="H36">
         <f>AVERAGE(H32:H34)</f>
-        <v>6.4427576158064192E-3</v>
+        <v>2.3915645197865949E-3</v>
       </c>
       <c r="I36">
         <f>AVERAGE(I32:I34)</f>
-        <v>0.99355724238419363</v>
+        <v>0.99760843548021338</v>
       </c>
       <c r="J36">
         <f>AVERAGE(J32:J34)</f>
         <v>0.23138888888888889</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L36" s="11"/>
+      <c r="L36" s="12"/>
       <c r="M36">
         <f>SUM(M32:M34)</f>
-        <v>2.4945798119259184E-2</v>
+        <v>2.463340404836955E-5</v>
       </c>
       <c r="N36">
         <f>SUM(N32:N34)</f>
-        <v>6.9335133333333372E-3</v>
+        <v>4.312540740740737E-4</v>
       </c>
       <c r="O36">
         <f>SUM(O32:O34)</f>
-        <v>1.2753865537914775E-2</v>
+        <v>8.2523999708400801E-5</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1460,6 +1532,10 @@
         <v>0.24616666666666667</v>
       </c>
       <c r="F37" s="3"/>
+      <c r="Q37" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R37" s="16"/>
     </row>
     <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -1474,12 +1550,15 @@
       </c>
       <c r="O38" s="4">
         <f>O36/(SQRT(M36) * SQRT(N36))</f>
-        <v>0.96976488593233079</v>
-      </c>
-      <c r="Q38" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="R38" s="12"/>
+        <v>0.80066611332161552</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="10">
+        <f>PEARSON(I32:I34,J32:J34)</f>
+        <v>0.80066611332161541</v>
+      </c>
     </row>
     <row r="39" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F39" s="2"/>
@@ -1488,39 +1567,34 @@
       </c>
       <c r="O39" s="4">
         <f>O38*-1</f>
-        <v>-0.96976488593233079</v>
+        <v>-0.80066611332161552</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R39" s="10">
-        <v>0.96976488593233079</v>
+        <f>PEARSON(H32:H34,J32:J34)</f>
+        <v>-0.80066611332161575</v>
       </c>
     </row>
     <row r="40" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F40" s="2"/>
-      <c r="Q40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R40" s="10">
-        <v>-0.96976488593233079</v>
-      </c>
     </row>
     <row r="41" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F41" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q24:R24"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q37:R37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
